--- a/BackTest/2019-10-29 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-29 BackTest LOOM.xlsx
@@ -451,20 +451,14 @@
         <v>26.36499999999998</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>26.37499999999998</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>26.37499999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>26.37999999999997</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>26.37999999999997</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>26.37999999999997</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>26.37999999999997</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>26.37999999999997</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>26.40499999999997</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>26.8</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>26.42999999999997</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>26.9</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>26.44999999999997</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>26.8</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>26.47499999999997</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>26.9</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -950,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -989,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1028,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1067,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1099,20 +1011,14 @@
         <v>26.52499999999998</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1140,20 +1046,14 @@
         <v>26.52499999999998</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1181,20 +1081,14 @@
         <v>26.52499999999998</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1222,20 +1116,14 @@
         <v>26.51499999999998</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1263,20 +1151,14 @@
         <v>26.50999999999997</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1304,20 +1186,14 @@
         <v>26.50499999999997</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1345,20 +1221,14 @@
         <v>26.50999999999997</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1386,20 +1256,14 @@
         <v>26.51499999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1427,20 +1291,14 @@
         <v>26.50999999999997</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1468,20 +1326,14 @@
         <v>26.50499999999997</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1509,20 +1361,14 @@
         <v>26.49999999999997</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1550,20 +1396,14 @@
         <v>26.48999999999997</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1591,20 +1431,14 @@
         <v>26.45999999999998</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1632,20 +1466,14 @@
         <v>26.43499999999998</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1673,20 +1501,14 @@
         <v>26.41499999999998</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1714,20 +1536,14 @@
         <v>26.38499999999998</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1755,20 +1571,14 @@
         <v>26.35999999999998</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1796,20 +1606,14 @@
         <v>26.33999999999997</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1837,20 +1641,14 @@
         <v>26.32999999999997</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1878,20 +1676,14 @@
         <v>26.31999999999997</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1919,20 +1711,14 @@
         <v>26.31999999999997</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1960,20 +1746,14 @@
         <v>26.31999999999997</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2001,20 +1781,14 @@
         <v>26.32499999999997</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2042,20 +1816,14 @@
         <v>26.33999999999997</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2083,20 +1851,14 @@
         <v>26.35499999999998</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2124,20 +1886,14 @@
         <v>26.36499999999998</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2165,20 +1921,14 @@
         <v>26.36499999999998</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2206,20 +1956,14 @@
         <v>26.36999999999998</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2247,20 +1991,14 @@
         <v>26.37999999999998</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2288,20 +2026,14 @@
         <v>26.38999999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2329,20 +2061,14 @@
         <v>26.39999999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2370,20 +2096,14 @@
         <v>26.40499999999998</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2411,20 +2131,14 @@
         <v>26.40999999999998</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2452,20 +2166,14 @@
         <v>26.40499999999998</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2493,20 +2201,14 @@
         <v>26.39999999999998</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2534,20 +2236,14 @@
         <v>26.39999999999998</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2575,20 +2271,14 @@
         <v>26.40499999999997</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2616,20 +2306,14 @@
         <v>26.40499999999997</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2657,20 +2341,14 @@
         <v>26.40499999999997</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2698,20 +2376,14 @@
         <v>26.40999999999998</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2739,20 +2411,14 @@
         <v>26.40999999999998</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2780,20 +2446,14 @@
         <v>26.40999999999998</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2821,20 +2481,14 @@
         <v>26.40499999999997</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2862,20 +2516,14 @@
         <v>26.39999999999997</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2903,20 +2551,14 @@
         <v>26.39499999999997</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2944,20 +2586,14 @@
         <v>26.38999999999997</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2985,20 +2621,14 @@
         <v>26.39499999999997</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3026,20 +2656,14 @@
         <v>26.39999999999997</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3067,20 +2691,14 @@
         <v>26.40499999999997</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3108,20 +2726,14 @@
         <v>26.40999999999998</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3149,20 +2761,14 @@
         <v>26.40499999999997</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3190,20 +2796,14 @@
         <v>26.41999999999998</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3231,20 +2831,14 @@
         <v>26.43999999999998</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>26.7</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3272,20 +2866,14 @@
         <v>26.45999999999999</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>26.7</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3313,20 +2901,14 @@
         <v>26.47999999999999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>26.7</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3361,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3400,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3439,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3478,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3517,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3549,20 +3111,14 @@
         <v>26.535</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3590,20 +3146,14 @@
         <v>26.53</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3631,20 +3181,14 @@
         <v>26.53</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3672,20 +3216,14 @@
         <v>26.52</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3713,20 +3251,14 @@
         <v>26.51</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3754,20 +3286,14 @@
         <v>26.505</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3795,20 +3321,14 @@
         <v>26.49499999999999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3836,20 +3356,14 @@
         <v>26.48999999999999</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3877,20 +3391,14 @@
         <v>26.47499999999999</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3918,20 +3426,14 @@
         <v>26.45999999999999</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3959,20 +3461,14 @@
         <v>26.45499999999998</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4000,20 +3496,14 @@
         <v>26.43999999999998</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4041,20 +3531,14 @@
         <v>26.41999999999998</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4082,20 +3566,14 @@
         <v>26.39499999999997</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4123,20 +3601,14 @@
         <v>26.36999999999998</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4164,20 +3636,14 @@
         <v>26.33999999999997</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>26.1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4205,20 +3671,14 @@
         <v>26.32499999999998</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4246,20 +3706,14 @@
         <v>26.30999999999997</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4287,20 +3741,14 @@
         <v>26.29999999999997</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4328,20 +3776,14 @@
         <v>26.29499999999997</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4369,20 +3811,14 @@
         <v>26.29999999999997</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4410,20 +3846,14 @@
         <v>26.30499999999997</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4451,20 +3881,14 @@
         <v>26.31999999999998</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>26.7</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4492,20 +3916,14 @@
         <v>26.33499999999998</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4533,20 +3951,14 @@
         <v>26.34999999999998</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4574,20 +3986,14 @@
         <v>26.36499999999999</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4615,20 +4021,14 @@
         <v>26.37999999999999</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4656,20 +4056,14 @@
         <v>26.38999999999999</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>26.7</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4697,20 +4091,14 @@
         <v>26.41</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>26.7</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4738,20 +4126,14 @@
         <v>26.43</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>26.7</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4779,20 +4161,14 @@
         <v>26.45000000000001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>26.7</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4820,20 +4196,14 @@
         <v>26.46500000000001</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4868,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4907,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4946,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4985,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5024,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5063,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5102,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5141,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5180,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5219,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5258,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5297,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5336,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5375,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5414,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5453,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5492,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5531,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5563,20 +4861,14 @@
         <v>26.58000000000001</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5604,20 +4896,14 @@
         <v>26.57000000000001</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5645,20 +4931,14 @@
         <v>26.56000000000001</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5686,20 +4966,14 @@
         <v>26.55500000000001</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5727,20 +5001,14 @@
         <v>26.54500000000001</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5768,20 +5036,14 @@
         <v>26.535</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5809,20 +5071,14 @@
         <v>26.525</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5850,20 +5106,14 @@
         <v>26.515</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5891,20 +5141,14 @@
         <v>26.51</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5932,20 +5176,14 @@
         <v>26.505</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5973,20 +5211,14 @@
         <v>26.51</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6014,20 +5246,14 @@
         <v>26.51</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6055,20 +5281,14 @@
         <v>26.505</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>26.5</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6096,20 +5316,14 @@
         <v>26.505</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6137,20 +5351,14 @@
         <v>26.515</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>26.7</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6185,11 +5393,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6224,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6263,11 +5463,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6302,11 +5498,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6341,11 +5533,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6380,11 +5568,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6419,11 +5603,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6458,11 +5638,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6497,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6536,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6575,11 +5743,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6614,11 +5778,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6653,11 +5813,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6692,11 +5848,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6731,11 +5883,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6770,11 +5918,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6809,11 +5953,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6848,11 +5988,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6887,11 +6023,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6919,20 +6051,14 @@
         <v>26.58500000000001</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6960,20 +6086,14 @@
         <v>26.57</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7001,20 +6121,14 @@
         <v>26.54500000000001</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>26.2</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7042,20 +6156,14 @@
         <v>26.525</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7083,20 +6191,14 @@
         <v>26.51</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7124,20 +6226,14 @@
         <v>26.49499999999999</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7165,20 +6261,14 @@
         <v>26.47999999999999</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>26.4</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7206,20 +6296,14 @@
         <v>26.45499999999999</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7247,20 +6331,14 @@
         <v>26.44499999999999</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>26.6</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7288,20 +6366,14 @@
         <v>26.435</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>26.7</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7329,20 +6401,14 @@
         <v>26.435</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>26.7</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7377,11 +6443,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7416,11 +6478,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7455,11 +6513,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7494,11 +6548,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7533,11 +6583,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7572,11 +6618,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7611,11 +6653,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7650,11 +6688,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7689,11 +6723,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7728,11 +6758,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7767,11 +6793,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7806,11 +6828,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7845,11 +6863,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7884,11 +6898,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7919,16 +6929,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7956,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -7991,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
@@ -8026,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
@@ -8061,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
@@ -8096,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
@@ -8131,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
@@ -8166,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
@@ -8236,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
@@ -8341,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
@@ -8376,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
@@ -8411,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
@@ -8446,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
@@ -10788,13 +9796,17 @@
         <v>27.31999999999999</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K269" t="n">
+        <v>26.9</v>
+      </c>
       <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
@@ -10829,8 +9841,14 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10864,8 +9882,14 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10899,8 +9923,14 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10934,8 +9964,14 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10969,8 +10005,14 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11004,8 +10046,14 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11039,8 +10087,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11074,8 +10128,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11109,8 +10169,14 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11144,8 +10210,14 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11179,8 +10251,14 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11214,8 +10292,14 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11249,8 +10333,14 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11278,14 +10368,22 @@
         <v>26.78499999999998</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="K283" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11313,14 +10411,22 @@
         <v>26.77999999999997</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K284" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11348,14 +10454,22 @@
         <v>26.75499999999997</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K285" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11383,14 +10497,22 @@
         <v>26.74499999999998</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K286" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11418,14 +10540,22 @@
         <v>26.72999999999998</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="K287" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11453,14 +10583,22 @@
         <v>26.68499999999998</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="K288" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11488,14 +10626,22 @@
         <v>26.67499999999998</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K289" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11523,14 +10669,22 @@
         <v>26.67499999999998</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="K290" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11558,14 +10712,22 @@
         <v>26.66499999999998</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="K291" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11599,8 +10761,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11634,8 +10802,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11669,8 +10843,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11704,8 +10884,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11739,8 +10925,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11774,8 +10966,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11809,8 +11007,14 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11844,8 +11048,14 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11879,8 +11089,14 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11914,8 +11130,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11949,8 +11171,14 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11978,14 +11206,22 @@
         <v>26.63</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K303" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -12013,14 +11249,22 @@
         <v>26.615</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="K304" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12054,8 +11298,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12083,14 +11333,22 @@
         <v>26.61</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K306" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12124,8 +11382,14 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12159,8 +11423,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12194,8 +11464,14 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12223,14 +11499,22 @@
         <v>26.56999999999999</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="K310" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12264,8 +11548,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12299,8 +11589,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12334,8 +11630,14 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12369,8 +11671,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12404,8 +11712,14 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12439,8 +11753,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12474,8 +11794,14 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12509,8 +11835,14 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12544,8 +11876,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12579,8 +11917,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12614,8 +11958,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12649,8 +11999,14 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12684,8 +12040,14 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12719,8 +12081,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12754,8 +12122,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12789,8 +12163,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-29 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-29 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-41846.60298449611</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-41846.60298449611</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>26.2</v>
@@ -521,7 +521,7 @@
         <v>-25425.57638449611</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>26.2</v>
@@ -562,7 +562,7 @@
         <v>-25425.57638449611</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>26.3</v>
@@ -603,7 +603,7 @@
         <v>-34411.08828449611</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>26.3</v>
@@ -644,7 +644,7 @@
         <v>-12339.26208449611</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>26.2</v>
@@ -685,7 +685,7 @@
         <v>-12339.26208449611</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>26.3</v>
@@ -726,11 +726,9 @@
         <v>-12339.26208449611</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>26.2</v>
       </c>
@@ -845,9 +843,11 @@
         <v>-12339.26208449611</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J12" t="n">
         <v>26.2</v>
       </c>
@@ -923,9 +923,11 @@
         <v>-54619.29098449611</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J14" t="n">
         <v>26.2</v>
       </c>
@@ -962,9 +964,11 @@
         <v>-54619.29098449611</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J15" t="n">
         <v>26.2</v>
       </c>
@@ -1001,9 +1005,11 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J16" t="n">
         <v>26.2</v>
       </c>
@@ -1040,9 +1046,11 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J17" t="n">
         <v>26.2</v>
       </c>
@@ -1079,9 +1087,11 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J18" t="n">
         <v>26.2</v>
       </c>
@@ -1118,7 +1128,7 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>26.4</v>
@@ -1159,7 +1169,7 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>26.4</v>
@@ -1200,7 +1210,7 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>26.4</v>
@@ -1241,7 +1251,7 @@
         <v>-175998.7506844961</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>26.4</v>
@@ -1282,7 +1292,7 @@
         <v>-163320.2253844961</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>26.1</v>
@@ -1323,7 +1333,7 @@
         <v>-143200.2253844961</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>26.3</v>
@@ -1364,7 +1374,7 @@
         <v>-143200.2253844961</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>26.4</v>
@@ -1405,7 +1415,7 @@
         <v>-228556.4101844961</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>26.4</v>
@@ -1446,7 +1456,7 @@
         <v>-208556.4101844961</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>26</v>
@@ -1487,7 +1497,7 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>26.3</v>
@@ -1528,7 +1538,7 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>26.4</v>
@@ -1569,7 +1579,7 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>26.4</v>
@@ -1610,7 +1620,7 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>26.4</v>
@@ -1651,9 +1661,11 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J32" t="n">
         <v>26.2</v>
       </c>
@@ -1690,9 +1702,11 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J33" t="n">
         <v>26.2</v>
       </c>
@@ -1729,7 +1743,7 @@
         <v>24345.97841550385</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>26.4</v>
@@ -1770,7 +1784,7 @@
         <v>7245.978415503851</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>26.5</v>
@@ -1811,7 +1825,7 @@
         <v>37202.45561550385</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>26.2</v>
@@ -1852,7 +1866,7 @@
         <v>37202.45561550385</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>26.4</v>
@@ -1893,7 +1907,7 @@
         <v>37202.45561550385</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>26.4</v>
@@ -1934,7 +1948,7 @@
         <v>-58750.14408449615</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>26.4</v>
@@ -1975,7 +1989,7 @@
         <v>-58750.14408449615</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>26.2</v>
@@ -2016,7 +2030,7 @@
         <v>-58750.14408449615</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>26.2</v>
@@ -2057,7 +2071,7 @@
         <v>-58750.14408449615</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>26.2</v>
@@ -2098,7 +2112,7 @@
         <v>-58546.80568449615</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>26.2</v>
@@ -2139,9 +2153,11 @@
         <v>-78455.63808449615</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J44" t="n">
         <v>26.2</v>
       </c>
@@ -2178,9 +2194,11 @@
         <v>-67355.63808449615</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>26.2</v>
+      </c>
       <c r="J45" t="n">
         <v>26.2</v>
       </c>
@@ -2217,9 +2235,11 @@
         <v>-67355.63808449615</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J46" t="n">
         <v>26.2</v>
       </c>
@@ -2256,9 +2276,11 @@
         <v>-67355.63808449615</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J47" t="n">
         <v>26.2</v>
       </c>
@@ -2295,9 +2317,11 @@
         <v>-67355.63808449615</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J48" t="n">
         <v>26.2</v>
       </c>
@@ -2334,9 +2358,11 @@
         <v>-67741.63808449615</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J49" t="n">
         <v>26.2</v>
       </c>
@@ -2373,9 +2399,11 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>26.3</v>
+      </c>
       <c r="J50" t="n">
         <v>26.2</v>
       </c>
@@ -2412,9 +2440,11 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J51" t="n">
         <v>26.2</v>
       </c>
@@ -2451,9 +2481,11 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J52" t="n">
         <v>26.2</v>
       </c>
@@ -2490,9 +2522,11 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J53" t="n">
         <v>26.2</v>
       </c>
@@ -2529,9 +2563,11 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J54" t="n">
         <v>26.2</v>
       </c>
@@ -2568,19 +2604,21 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J55" t="n">
         <v>26.2</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.00263358778626</v>
+        <v>1</v>
       </c>
       <c r="M55" t="inlineStr"/>
     </row>
@@ -2610,8 +2648,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2640,11 +2684,19 @@
         <v>-29568.60598449616</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2673,11 +2725,19 @@
         <v>-12425.60608449616</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2706,11 +2766,19 @@
         <v>163680.3548155038</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J59" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2739,11 +2807,17 @@
         <v>143172.3182155039</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2775,8 +2849,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2808,8 +2888,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2841,8 +2927,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2874,8 +2966,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2907,8 +3005,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2940,8 +3044,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2973,8 +3083,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3006,8 +3122,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3039,8 +3161,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3072,8 +3200,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3102,11 +3236,17 @@
         <v>444838.9640155038</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3135,11 +3275,17 @@
         <v>498825.5127155038</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3171,8 +3317,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3204,8 +3356,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3237,8 +3395,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3270,8 +3434,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3303,8 +3473,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3336,8 +3512,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3369,8 +3551,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3402,8 +3590,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3435,8 +3629,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3468,8 +3668,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3501,8 +3707,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3534,8 +3746,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3567,8 +3785,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3600,8 +3824,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3633,8 +3863,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3666,8 +3902,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3696,11 +3938,19 @@
         <v>274326.6825155038</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3732,8 +3982,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3765,8 +4021,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3798,8 +4060,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3831,8 +4099,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3864,8 +4138,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3897,8 +4177,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3930,8 +4216,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3963,8 +4255,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3996,8 +4294,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4029,8 +4333,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4062,8 +4372,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4095,8 +4411,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4128,8 +4450,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4161,8 +4489,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4194,8 +4528,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4227,8 +4567,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4260,8 +4606,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4293,8 +4645,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4326,8 +4684,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4359,8 +4723,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4392,8 +4762,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4425,8 +4801,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4458,8 +4840,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4491,8 +4879,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4524,8 +4918,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4557,8 +4957,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4590,8 +4996,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4623,8 +5035,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4656,8 +5074,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4689,8 +5113,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4722,8 +5152,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4755,8 +5191,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4788,8 +5230,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4821,8 +5269,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4854,8 +5308,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4887,8 +5347,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4920,8 +5386,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4950,11 +5422,17 @@
         <v>466377.4683155039</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4983,11 +5461,17 @@
         <v>504487.9336155038</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5016,11 +5500,17 @@
         <v>504487.9336155038</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5052,8 +5542,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5082,11 +5578,17 @@
         <v>504487.9336155038</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5115,11 +5617,17 @@
         <v>504487.9336155038</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5148,11 +5656,17 @@
         <v>436226.9336155038</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5181,11 +5695,17 @@
         <v>436546.3328155038</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5214,11 +5734,17 @@
         <v>338301.0852155038</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5247,11 +5773,17 @@
         <v>91049.97641550383</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5283,8 +5815,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5316,8 +5854,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5349,8 +5893,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5382,8 +5932,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5415,8 +5971,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5448,8 +6010,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5481,8 +6049,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5514,8 +6088,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5547,8 +6127,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5577,11 +6163,19 @@
         <v>106107.9151155038</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J146" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5610,11 +6204,17 @@
         <v>-73749.62498449619</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5646,8 +6246,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5676,11 +6282,19 @@
         <v>-23871.33268449619</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J149" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5709,11 +6323,19 @@
         <v>-23871.33268449619</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J150" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5742,11 +6364,19 @@
         <v>-23871.33268449619</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5775,11 +6405,19 @@
         <v>-25671.33268449619</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J152" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5808,11 +6446,19 @@
         <v>-24559.50268449619</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5841,11 +6487,19 @@
         <v>-21940.34478449619</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J154" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5877,8 +6531,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5910,8 +6570,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5943,8 +6609,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5976,8 +6648,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6009,8 +6687,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6042,8 +6726,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6075,8 +6765,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6108,8 +6804,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6141,8 +6843,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6174,8 +6882,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6207,8 +6921,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6240,8 +6960,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6273,8 +6999,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6306,8 +7038,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6339,8 +7077,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6372,8 +7116,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6405,8 +7155,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6438,8 +7194,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6471,8 +7233,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6504,8 +7272,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6537,8 +7311,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6570,8 +7350,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6603,8 +7389,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6636,8 +7428,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6669,8 +7467,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6702,8 +7506,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6732,11 +7542,17 @@
         <v>-355322.8504844962</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6768,8 +7584,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6801,8 +7623,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6834,8 +7662,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6864,11 +7698,19 @@
         <v>-355322.8504844962</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J185" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6897,11 +7739,19 @@
         <v>-355322.8504844962</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J186" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6930,11 +7780,19 @@
         <v>-355322.8504844962</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J187" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6963,11 +7821,19 @@
         <v>-375322.8504844962</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J188" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6996,11 +7862,19 @@
         <v>-375322.8504844962</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J189" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7029,11 +7903,19 @@
         <v>-358490.3101844962</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J190" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7062,11 +7944,19 @@
         <v>-358490.3101844962</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J191" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7095,11 +7985,19 @@
         <v>-358490.3101844962</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J192" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7128,11 +8026,19 @@
         <v>-358490.3101844962</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J193" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7161,11 +8067,19 @@
         <v>-358490.3101844962</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J194" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7194,11 +8108,19 @@
         <v>-358490.3101844962</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J195" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7227,11 +8149,19 @@
         <v>-358490.3101844962</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J196" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7260,11 +8190,19 @@
         <v>-354904.4457844962</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J197" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7293,11 +8231,19 @@
         <v>-354904.4457844962</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J198" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7326,11 +8272,19 @@
         <v>-354904.4457844962</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J199" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7359,11 +8313,19 @@
         <v>-311701.1348844962</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J200" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7392,11 +8354,19 @@
         <v>-311701.1348844962</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J201" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7425,11 +8395,17 @@
         <v>-311701.1348844962</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7458,11 +8434,17 @@
         <v>-311701.1348844962</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7491,11 +8473,17 @@
         <v>-311701.1348844962</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7527,8 +8515,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7557,11 +8551,19 @@
         <v>-311701.1348844962</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J206" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7593,8 +8595,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7623,11 +8631,19 @@
         <v>-295901.1348844962</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="J208" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7656,11 +8672,19 @@
         <v>-286270.4092844962</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="J209" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7689,11 +8713,19 @@
         <v>-286270.4092844962</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J210" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7722,11 +8754,19 @@
         <v>-319084.5486844962</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="J211" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7755,15 +8795,19 @@
         <v>-332084.5486844962</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>26.7</v>
       </c>
       <c r="J212" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
+        <v>26.2</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7792,15 +8836,17 @@
         <v>-337084.5486844962</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>26.6</v>
+      </c>
       <c r="J213" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L213" t="n">
@@ -7831,15 +8877,17 @@
         <v>-335974.9720844962</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>26.5</v>
+      </c>
       <c r="J214" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L214" t="n">
@@ -7870,11 +8918,19 @@
         <v>-335974.9720844962</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J215" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7903,11 +8959,19 @@
         <v>-335974.9720844962</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J216" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7936,11 +9000,19 @@
         <v>-343374.9720844962</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J217" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7969,11 +9041,19 @@
         <v>-413053.3274844962</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J218" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8002,11 +9082,19 @@
         <v>-413053.3274844962</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J219" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8035,11 +9123,19 @@
         <v>-428053.3274844962</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J220" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8068,11 +9164,19 @@
         <v>-310177.1717844962</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J221" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8101,11 +9205,19 @@
         <v>-333282.6338844962</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J222" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8134,11 +9246,19 @@
         <v>-333282.6338844962</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J223" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8167,11 +9287,19 @@
         <v>-297532.6784844963</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J224" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8200,11 +9328,19 @@
         <v>-314532.6784844963</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J225" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8233,11 +9369,19 @@
         <v>-313492.6784844963</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J226" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8266,11 +9410,19 @@
         <v>-239655.3954844963</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J227" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8299,11 +9451,19 @@
         <v>-53579.85838449627</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J228" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8332,11 +9492,19 @@
         <v>-55422.34558449627</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J229" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8365,11 +9533,19 @@
         <v>4183.43451550373</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="J230" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8401,8 +9577,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8431,11 +9613,19 @@
         <v>4183.43451550373</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="J232" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8467,8 +9657,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8500,8 +9696,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8533,8 +9735,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8566,8 +9774,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8599,8 +9813,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8629,11 +9849,17 @@
         <v>511072.6087155038</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8665,8 +9891,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8695,11 +9927,17 @@
         <v>513462.2853155037</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8731,8 +9969,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8764,8 +10008,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8797,8 +10047,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8827,11 +10083,17 @@
         <v>839046.9110498102</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8860,11 +10122,17 @@
         <v>839046.9110498102</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8893,11 +10161,17 @@
         <v>839046.9110498102</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8926,11 +10200,17 @@
         <v>839046.9110498102</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8959,11 +10239,17 @@
         <v>839046.9110498102</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8995,8 +10281,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9028,8 +10320,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9061,8 +10359,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9094,8 +10398,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9127,8 +10437,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9160,8 +10476,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9193,8 +10515,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9223,11 +10551,17 @@
         <v>1358770.22404981</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9256,11 +10590,17 @@
         <v>1192326.94234981</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9289,11 +10629,17 @@
         <v>1242286.42994981</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9322,11 +10668,17 @@
         <v>1607573.161549811</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9355,11 +10707,17 @@
         <v>1607573.161549811</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9388,11 +10746,17 @@
         <v>2366233.364196227</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9421,11 +10785,17 @@
         <v>2366233.364196227</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9454,11 +10824,17 @@
         <v>2366233.364196227</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9487,11 +10863,17 @@
         <v>2366233.364196227</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9520,11 +10902,17 @@
         <v>2194906.442396227</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9553,11 +10941,17 @@
         <v>2416113.558196227</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9589,8 +10983,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9619,11 +11019,17 @@
         <v>2185002.321296227</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9655,8 +11061,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9688,8 +11100,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9718,15 +11136,23 @@
         <v>1881375.380996227</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+        <v>1.086603053435115</v>
+      </c>
+      <c r="M271" t="n">
+        <v>1.00381679389313</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9751,7 +11177,7 @@
         <v>1724068.454796227</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9784,7 +11210,7 @@
         <v>1501434.815796227</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9817,7 +11243,7 @@
         <v>1549271.131496227</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9850,7 +11276,7 @@
         <v>1549271.131496227</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9883,7 +11309,7 @@
         <v>1470759.130896227</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9916,7 +11342,7 @@
         <v>1575371.626096227</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9949,7 +11375,7 @@
         <v>1423734.525596227</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9982,7 +11408,7 @@
         <v>1423734.525596227</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10015,7 +11441,7 @@
         <v>1426584.149596227</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10048,7 +11474,7 @@
         <v>1426584.149596227</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10081,7 +11507,7 @@
         <v>1437708.508396227</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10114,7 +11540,7 @@
         <v>1521281.162396227</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10147,7 +11573,7 @@
         <v>1406231.456296227</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10180,7 +11606,7 @@
         <v>1471154.671796227</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10213,7 +11639,7 @@
         <v>1615186.356896227</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10246,7 +11672,7 @@
         <v>1604156.958396227</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10279,7 +11705,7 @@
         <v>1488766.220796227</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10312,7 +11738,7 @@
         <v>1488766.220796227</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10345,7 +11771,7 @@
         <v>1535245.235096227</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10378,7 +11804,7 @@
         <v>1535245.235096227</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10411,7 +11837,7 @@
         <v>1508308.275796227</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10477,7 +11903,7 @@
         <v>1508308.275796227</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10741,7 +12167,7 @@
         <v>1257590.865196227</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10774,7 +12200,7 @@
         <v>1258315.875596227</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10807,7 +12233,7 @@
         <v>1258315.875596227</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10840,7 +12266,7 @@
         <v>1290749.478196227</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10873,7 +12299,7 @@
         <v>1290739.478196227</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10906,7 +12332,7 @@
         <v>1310258.990596227</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10939,7 +12365,7 @@
         <v>1310248.990596227</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10972,7 +12398,7 @@
         <v>1310248.990596227</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11005,7 +12431,7 @@
         <v>1310248.990596227</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11038,7 +12464,7 @@
         <v>1310623.990596227</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11071,7 +12497,7 @@
         <v>1032743.729396227</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11104,7 +12530,7 @@
         <v>1142871.939996227</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11137,7 +12563,7 @@
         <v>1138511.046396227</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11170,7 +12596,7 @@
         <v>1123380.813296227</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11203,7 +12629,7 @@
         <v>1123380.813296227</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11236,7 +12662,7 @@
         <v>1123380.813296227</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11269,7 +12695,7 @@
         <v>913954.4638962271</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11302,7 +12728,7 @@
         <v>485527.910696227</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11335,7 +12761,7 @@
         <v>663538.255096227</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11368,7 +12794,7 @@
         <v>615873.063096227</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11401,7 +12827,7 @@
         <v>491632.939896227</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11434,7 +12860,7 @@
         <v>500397.986996227</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -13711,11 +15137,17 @@
         <v>-220773.9205037731</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>26.5</v>
+      </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13744,11 +15176,17 @@
         <v>-533740.1329037731</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13777,11 +15215,17 @@
         <v>-399144.9669037731</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>26.1</v>
+      </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13814,13 +15258,17 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
       <c r="M395" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-29 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-41846.60298449611</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-41846.60298449611</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-25425.57638449611</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-25425.57638449611</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>-34411.08828449611</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>-12339.26208449611</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>-12339.26208449611</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -729,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -768,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -807,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -843,19 +781,11 @@
         <v>-12339.26208449611</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -887,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -923,19 +847,11 @@
         <v>-54619.29098449611</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -964,19 +880,11 @@
         <v>-54619.29098449611</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1005,19 +913,11 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1046,19 +946,11 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1087,19 +979,11 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1128,19 +1012,11 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1169,19 +1045,11 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1210,19 +1078,11 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1251,19 +1111,11 @@
         <v>-175998.7506844961</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J22" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1292,19 +1144,11 @@
         <v>-163320.2253844961</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1333,19 +1177,11 @@
         <v>-143200.2253844961</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1374,19 +1210,11 @@
         <v>-143200.2253844961</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1415,19 +1243,11 @@
         <v>-228556.4101844961</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1456,19 +1276,11 @@
         <v>-208556.4101844961</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>26</v>
-      </c>
-      <c r="J27" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1497,19 +1309,11 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1538,19 +1342,11 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J29" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1579,19 +1375,11 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J30" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1620,19 +1408,11 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1661,19 +1441,11 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1702,19 +1474,11 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1743,19 +1507,11 @@
         <v>24345.97841550385</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J34" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1784,19 +1540,11 @@
         <v>7245.978415503851</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1825,19 +1573,11 @@
         <v>37202.45561550385</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J36" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1866,19 +1606,11 @@
         <v>37202.45561550385</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1907,19 +1639,11 @@
         <v>37202.45561550385</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J38" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1948,19 +1672,11 @@
         <v>-58750.14408449615</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J39" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1989,19 +1705,11 @@
         <v>-58750.14408449615</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J40" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2030,19 +1738,11 @@
         <v>-58750.14408449615</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2079,11 +1779,7 @@
       <c r="J42" t="n">
         <v>26.2</v>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2122,7 +1818,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -2153,17 +1849,15 @@
         <v>-78455.63808449615</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>26.2</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -2202,11 +1896,7 @@
       <c r="J45" t="n">
         <v>26.2</v>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2235,17 +1925,15 @@
         <v>-67355.63808449615</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>26.2</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -2276,17 +1964,15 @@
         <v>-67355.63808449615</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>26.2</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2317,19 +2003,11 @@
         <v>-67355.63808449615</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J48" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2358,19 +2036,11 @@
         <v>-67741.63808449615</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J49" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2405,13 +2075,9 @@
         <v>26.3</v>
       </c>
       <c r="J50" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>26.3</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2440,17 +2106,15 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2481,17 +2145,15 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2528,13 +2190,9 @@
         <v>26.4</v>
       </c>
       <c r="J53" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>26.4</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2569,11 +2227,11 @@
         <v>26.4</v>
       </c>
       <c r="J54" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2610,11 +2268,11 @@
         <v>26.4</v>
       </c>
       <c r="J55" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2645,17 +2303,15 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>26.4</v>
+      </c>
       <c r="J56" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>26.4</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2690,11 +2346,11 @@
         <v>26.4</v>
       </c>
       <c r="J57" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2731,11 +2387,11 @@
         <v>26.2</v>
       </c>
       <c r="J58" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2772,11 +2428,11 @@
         <v>26.4</v>
       </c>
       <c r="J59" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2811,7 +2467,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2850,7 +2506,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2889,7 +2545,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2928,7 +2584,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2967,7 +2623,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3006,7 +2662,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3045,7 +2701,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3084,7 +2740,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3123,7 +2779,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3162,7 +2818,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3201,7 +2857,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3240,7 +2896,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3279,7 +2935,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3318,7 +2974,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3357,7 +3013,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3396,7 +3052,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3435,7 +3091,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3474,7 +3130,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3513,7 +3169,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3552,7 +3208,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3591,7 +3247,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3630,7 +3286,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3669,7 +3325,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3708,7 +3364,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3747,7 +3403,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3786,7 +3442,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3825,7 +3481,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3864,7 +3520,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3903,7 +3559,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3938,13 +3594,11 @@
         <v>274326.6825155038</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3983,7 +3637,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -4022,7 +3676,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4061,7 +3715,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4100,7 +3754,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4139,7 +3793,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4178,7 +3832,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4217,7 +3871,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4256,7 +3910,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4295,7 +3949,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4334,7 +3988,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4373,7 +4027,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4412,7 +4066,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4451,7 +4105,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4490,7 +4144,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4529,7 +4183,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4568,7 +4222,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4607,7 +4261,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4646,7 +4300,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4685,7 +4339,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4724,7 +4378,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4763,7 +4417,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4802,7 +4456,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4841,7 +4495,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4880,7 +4534,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4919,7 +4573,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4958,7 +4612,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4997,7 +4651,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -5036,7 +4690,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5075,7 +4729,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5114,7 +4768,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5153,7 +4807,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5192,7 +4846,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5231,7 +4885,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5270,7 +4924,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5309,7 +4963,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5348,7 +5002,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5387,7 +5041,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5426,7 +5080,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5465,7 +5119,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5504,7 +5158,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5543,7 +5197,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5582,7 +5236,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5621,7 +5275,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5660,7 +5314,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5699,7 +5353,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5738,7 +5392,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5777,7 +5431,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5816,7 +5470,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5855,7 +5509,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5894,7 +5548,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5933,7 +5587,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5972,7 +5626,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -6011,7 +5665,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -6050,7 +5704,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6089,7 +5743,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6128,7 +5782,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6163,13 +5817,11 @@
         <v>106107.9151155038</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6208,7 +5860,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6247,7 +5899,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6282,13 +5934,11 @@
         <v>-23871.33268449619</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6323,13 +5973,11 @@
         <v>-23871.33268449619</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6364,13 +6012,11 @@
         <v>-23871.33268449619</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6405,13 +6051,11 @@
         <v>-25671.33268449619</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6446,13 +6090,11 @@
         <v>-24559.50268449619</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6487,13 +6129,11 @@
         <v>-21940.34478449619</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6532,7 +6172,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6571,7 +6211,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6610,7 +6250,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6649,7 +6289,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6688,7 +6328,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6727,7 +6367,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6766,7 +6406,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6805,7 +6445,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6844,7 +6484,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6883,7 +6523,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6922,7 +6562,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6961,7 +6601,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -7000,7 +6640,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -7039,7 +6679,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -7078,7 +6718,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7117,7 +6757,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7156,7 +6796,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7195,7 +6835,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7234,7 +6874,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7273,7 +6913,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7312,7 +6952,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7351,7 +6991,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7390,7 +7030,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7429,7 +7069,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7468,7 +7108,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7507,7 +7147,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7546,7 +7186,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7585,7 +7225,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7624,7 +7264,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7663,7 +7303,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7698,13 +7338,11 @@
         <v>-355322.8504844962</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7739,13 +7377,11 @@
         <v>-355322.8504844962</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7780,13 +7416,11 @@
         <v>-355322.8504844962</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7821,13 +7455,11 @@
         <v>-375322.8504844962</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7862,13 +7494,11 @@
         <v>-375322.8504844962</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7903,13 +7533,11 @@
         <v>-358490.3101844962</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7944,13 +7572,11 @@
         <v>-358490.3101844962</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7985,13 +7611,11 @@
         <v>-358490.3101844962</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -8026,13 +7650,11 @@
         <v>-358490.3101844962</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -8067,13 +7689,11 @@
         <v>-358490.3101844962</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -8108,13 +7728,11 @@
         <v>-358490.3101844962</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8155,7 +7773,7 @@
         <v>26.5</v>
       </c>
       <c r="J196" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8196,7 +7814,7 @@
         <v>26.5</v>
       </c>
       <c r="J197" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8231,13 +7849,11 @@
         <v>-354904.4457844962</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8272,13 +7888,11 @@
         <v>-354904.4457844962</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8313,13 +7927,11 @@
         <v>-311701.1348844962</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8354,13 +7966,11 @@
         <v>-311701.1348844962</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8399,7 +8009,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8438,7 +8048,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8477,7 +8087,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8516,7 +8126,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8551,13 +8161,11 @@
         <v>-311701.1348844962</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8596,7 +8204,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8631,13 +8239,11 @@
         <v>-295901.1348844962</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>26.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8672,13 +8278,11 @@
         <v>-286270.4092844962</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>26.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8713,13 +8317,11 @@
         <v>-286270.4092844962</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8754,13 +8356,11 @@
         <v>-319084.5486844962</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>26.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8795,13 +8395,11 @@
         <v>-332084.5486844962</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8836,13 +8434,11 @@
         <v>-337084.5486844962</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8877,13 +8473,11 @@
         <v>-335974.9720844962</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8918,13 +8512,11 @@
         <v>-335974.9720844962</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8959,13 +8551,11 @@
         <v>-335974.9720844962</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -9000,13 +8590,11 @@
         <v>-343374.9720844962</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -9041,13 +8629,11 @@
         <v>-413053.3274844962</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -9088,7 +8674,7 @@
         <v>26.3</v>
       </c>
       <c r="J219" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -9129,7 +8715,7 @@
         <v>26.3</v>
       </c>
       <c r="J220" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -9170,7 +8756,7 @@
         <v>26.2</v>
       </c>
       <c r="J221" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9211,7 +8797,7 @@
         <v>26.4</v>
       </c>
       <c r="J222" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9252,7 +8838,7 @@
         <v>26.2</v>
       </c>
       <c r="J223" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9293,7 +8879,7 @@
         <v>26.2</v>
       </c>
       <c r="J224" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9334,7 +8920,7 @@
         <v>26.4</v>
       </c>
       <c r="J225" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9375,7 +8961,7 @@
         <v>26.2</v>
       </c>
       <c r="J226" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9416,7 +9002,7 @@
         <v>26.4</v>
       </c>
       <c r="J227" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9457,7 +9043,7 @@
         <v>26.5</v>
       </c>
       <c r="J228" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9492,13 +9078,11 @@
         <v>-55422.34558449627</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9539,7 +9123,7 @@
         <v>26.6</v>
       </c>
       <c r="J230" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9578,7 +9162,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9613,13 +9197,11 @@
         <v>4183.43451550373</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>26.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9658,7 +9240,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9697,7 +9279,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9736,7 +9318,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9775,7 +9357,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9810,19 +9392,19 @@
         <v>503960.6087155038</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L237" t="n">
-        <v>1</v>
+        <v>1.032878787878788</v>
       </c>
       <c r="M237" t="inlineStr"/>
     </row>
@@ -9849,17 +9431,11 @@
         <v>511072.6087155038</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9888,17 +9464,11 @@
         <v>492771.6634155037</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9927,17 +9497,11 @@
         <v>513462.2853155037</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9966,17 +9530,11 @@
         <v>513462.2853155037</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -10005,17 +9563,11 @@
         <v>842046.9109498103</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -10044,17 +9596,11 @@
         <v>839046.9110498102</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10083,17 +9629,11 @@
         <v>839046.9110498102</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10125,14 +9665,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10161,17 +9695,11 @@
         <v>839046.9110498102</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10203,14 +9731,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10242,14 +9764,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10281,14 +9797,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10320,14 +9830,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10359,14 +9863,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10398,14 +9896,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10437,14 +9929,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10476,14 +9962,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10515,14 +9995,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10554,14 +10028,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10593,14 +10061,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10632,14 +10094,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10671,14 +10127,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10710,14 +10160,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10749,14 +10193,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10788,14 +10226,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10827,14 +10259,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10866,14 +10292,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10905,14 +10325,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10944,14 +10358,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10983,14 +10391,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -11022,14 +10424,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -11061,14 +10457,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11100,14 +10490,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11136,23 +10520,15 @@
         <v>1881375.380996227</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
-        <v>1.086603053435115</v>
-      </c>
-      <c r="M271" t="n">
-        <v>1.00381679389313</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -11177,7 +10553,7 @@
         <v>1724068.454796227</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -11210,7 +10586,7 @@
         <v>1501434.815796227</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -11243,7 +10619,7 @@
         <v>1549271.131496227</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -11276,7 +10652,7 @@
         <v>1549271.131496227</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -11309,7 +10685,7 @@
         <v>1470759.130896227</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -11342,7 +10718,7 @@
         <v>1575371.626096227</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11375,7 +10751,7 @@
         <v>1423734.525596227</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11408,7 +10784,7 @@
         <v>1423734.525596227</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11441,7 +10817,7 @@
         <v>1426584.149596227</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11474,7 +10850,7 @@
         <v>1426584.149596227</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11507,7 +10883,7 @@
         <v>1437708.508396227</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11540,7 +10916,7 @@
         <v>1521281.162396227</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11573,7 +10949,7 @@
         <v>1406231.456296227</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11606,7 +10982,7 @@
         <v>1471154.671796227</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11639,7 +11015,7 @@
         <v>1615186.356896227</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11672,7 +11048,7 @@
         <v>1604156.958396227</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11870,7 +11246,7 @@
         <v>1508308.275796227</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11903,7 +11279,7 @@
         <v>1508308.275796227</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -12167,7 +11543,7 @@
         <v>1257590.865196227</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12200,7 +11576,7 @@
         <v>1258315.875596227</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12233,7 +11609,7 @@
         <v>1258315.875596227</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12266,7 +11642,7 @@
         <v>1290749.478196227</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12299,7 +11675,7 @@
         <v>1290739.478196227</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12332,7 +11708,7 @@
         <v>1310258.990596227</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12365,7 +11741,7 @@
         <v>1310248.990596227</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12398,7 +11774,7 @@
         <v>1310248.990596227</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12431,7 +11807,7 @@
         <v>1310248.990596227</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12464,7 +11840,7 @@
         <v>1310623.990596227</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12497,7 +11873,7 @@
         <v>1032743.729396227</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12530,7 +11906,7 @@
         <v>1142871.939996227</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12563,7 +11939,7 @@
         <v>1138511.046396227</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12596,7 +11972,7 @@
         <v>1123380.813296227</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12629,7 +12005,7 @@
         <v>1123380.813296227</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12662,7 +12038,7 @@
         <v>1123380.813296227</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12695,7 +12071,7 @@
         <v>913954.4638962271</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12728,7 +12104,7 @@
         <v>485527.910696227</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12761,7 +12137,7 @@
         <v>663538.255096227</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12794,7 +12170,7 @@
         <v>615873.063096227</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12827,7 +12203,7 @@
         <v>491632.939896227</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12860,7 +12236,7 @@
         <v>500397.986996227</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -15137,17 +14513,11 @@
         <v>-220773.9205037731</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15176,17 +14546,11 @@
         <v>-533740.1329037731</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15215,17 +14579,11 @@
         <v>-399144.9669037731</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>26.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15258,17 +14616,13 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
       <c r="M395" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-29 BackTest LOOM.xlsx
@@ -451,7 +451,7 @@
         <v>-41846.60298449611</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-41846.60298449611</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>26.2</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-25425.57638449611</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-25425.57638449611</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>-34411.08828449611</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>-12339.26208449611</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>-12339.26208449611</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +729,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +768,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +807,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +846,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +885,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +921,19 @@
         <v>-54619.29098449611</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +962,19 @@
         <v>-54619.29098449611</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1003,19 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1044,19 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1085,19 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1126,19 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1167,19 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1208,19 @@
         <v>-53916.91078449611</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1249,19 @@
         <v>-175998.7506844961</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1290,19 @@
         <v>-163320.2253844961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1331,19 @@
         <v>-143200.2253844961</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1372,19 @@
         <v>-143200.2253844961</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1413,19 @@
         <v>-228556.4101844961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1454,19 @@
         <v>-208556.4101844961</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>26</v>
+      </c>
+      <c r="J27" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1495,19 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1536,19 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1577,19 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1618,19 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1659,19 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J32" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1700,19 @@
         <v>-120216.3723844961</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1741,19 @@
         <v>24345.97841550385</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1782,19 @@
         <v>7245.978415503851</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1823,19 @@
         <v>37202.45561550385</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1864,19 @@
         <v>37202.45561550385</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J37" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1905,19 @@
         <v>37202.45561550385</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J38" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1946,19 @@
         <v>-58750.14408449615</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1987,19 @@
         <v>-58750.14408449615</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +2028,19 @@
         <v>-58750.14408449615</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1779,7 +2077,11 @@
       <c r="J42" t="n">
         <v>26.2</v>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1818,7 +2120,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L43" t="n">
@@ -1857,7 +2159,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -1888,15 +2190,17 @@
         <v>-67355.63808449615</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>26.2</v>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1933,7 +2237,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -1972,7 +2276,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -2006,8 +2310,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2039,8 +2349,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2069,15 +2385,17 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+        <v>26.2</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2110,11 +2428,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2149,11 +2467,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>26.3</v>
+        <v>26.2</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2184,15 +2502,17 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+        <v>26.2</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2221,17 +2541,15 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2262,17 +2580,15 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
@@ -2303,15 +2619,17 @@
         <v>-29182.60598449616</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+        <v>26.2</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2340,17 +2658,15 @@
         <v>-29568.60598449616</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2381,17 +2697,15 @@
         <v>-12425.60608449616</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2422,17 +2736,15 @@
         <v>163680.3548155038</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2467,7 +2779,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2506,7 +2818,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2545,7 +2857,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2584,7 +2896,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2623,7 +2935,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2662,7 +2974,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2701,7 +3013,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2740,7 +3052,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2779,7 +3091,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2818,7 +3130,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2857,7 +3169,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2896,7 +3208,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2935,7 +3247,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2974,7 +3286,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3013,7 +3325,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3052,7 +3364,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3091,7 +3403,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3130,7 +3442,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3169,7 +3481,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3208,7 +3520,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3247,7 +3559,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3286,7 +3598,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3325,7 +3637,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3364,7 +3676,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3403,7 +3715,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3442,7 +3754,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3481,7 +3793,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3520,7 +3832,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3559,7 +3871,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3598,7 +3910,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3637,7 +3949,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3676,7 +3988,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3715,7 +4027,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3754,7 +4066,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3793,7 +4105,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3832,7 +4144,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3871,7 +4183,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3910,7 +4222,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3949,7 +4261,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3988,7 +4300,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4027,7 +4339,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4066,7 +4378,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4105,7 +4417,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4144,7 +4456,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4183,7 +4495,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4222,7 +4534,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4261,7 +4573,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4300,7 +4612,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4339,7 +4651,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4378,7 +4690,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4417,7 +4729,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4456,7 +4768,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4495,7 +4807,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4534,7 +4846,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4573,7 +4885,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4612,7 +4924,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4651,7 +4963,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4690,7 +5002,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4729,7 +5041,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4768,7 +5080,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4807,7 +5119,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4846,7 +5158,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4885,7 +5197,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4924,7 +5236,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4963,7 +5275,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5002,7 +5314,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5041,7 +5353,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5080,7 +5392,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5119,7 +5431,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5158,7 +5470,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5197,7 +5509,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5236,7 +5548,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5275,7 +5587,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5314,7 +5626,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5353,7 +5665,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5392,7 +5704,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5431,7 +5743,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5470,7 +5782,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5509,7 +5821,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5548,7 +5860,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5587,7 +5899,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5626,7 +5938,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5665,7 +5977,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5704,7 +6016,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5743,7 +6055,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5782,7 +6094,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5821,7 +6133,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5860,7 +6172,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5899,7 +6211,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5938,7 +6250,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5977,7 +6289,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6016,7 +6328,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6055,7 +6367,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6094,7 +6406,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6133,7 +6445,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6172,7 +6484,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6211,7 +6523,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6250,7 +6562,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6289,7 +6601,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6328,7 +6640,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6367,7 +6679,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6406,7 +6718,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6445,7 +6757,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6484,7 +6796,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6523,7 +6835,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6562,7 +6874,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6601,7 +6913,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6640,7 +6952,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6679,7 +6991,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6718,7 +7030,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6757,7 +7069,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6796,7 +7108,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6835,7 +7147,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6874,7 +7186,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6913,7 +7225,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6952,7 +7264,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6991,7 +7303,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7030,7 +7342,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7069,7 +7381,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7108,7 +7420,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7147,7 +7459,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7186,7 +7498,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7225,7 +7537,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7264,7 +7576,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7303,7 +7615,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7342,7 +7654,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7381,7 +7693,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7420,7 +7732,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7459,7 +7771,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7498,7 +7810,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7537,7 +7849,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7576,7 +7888,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7615,7 +7927,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7654,7 +7966,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7693,7 +8005,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7732,7 +8044,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7767,13 +8079,11 @@
         <v>-358490.3101844962</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7808,13 +8118,11 @@
         <v>-354904.4457844962</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7853,7 +8161,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7892,7 +8200,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7931,7 +8239,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7970,7 +8278,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8009,7 +8317,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8048,7 +8356,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8087,7 +8395,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8126,7 +8434,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8165,7 +8473,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8204,7 +8512,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8243,7 +8551,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8282,7 +8590,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8321,7 +8629,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8360,7 +8668,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8399,7 +8707,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8438,7 +8746,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8477,7 +8785,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8516,7 +8824,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8555,7 +8863,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8594,7 +8902,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8633,7 +8941,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8668,13 +8976,11 @@
         <v>-413053.3274844962</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8709,13 +9015,11 @@
         <v>-428053.3274844962</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>26.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8750,13 +9054,11 @@
         <v>-310177.1717844962</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8791,13 +9093,11 @@
         <v>-333282.6338844962</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8832,13 +9132,11 @@
         <v>-333282.6338844962</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8879,7 +9177,7 @@
         <v>26.2</v>
       </c>
       <c r="J224" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8914,13 +9212,11 @@
         <v>-314532.6784844963</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8955,13 +9251,11 @@
         <v>-313492.6784844963</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>26.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8996,13 +9290,11 @@
         <v>-239655.3954844963</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>26.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9037,13 +9329,11 @@
         <v>-53579.85838449627</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>26.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9082,7 +9372,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9117,13 +9407,11 @@
         <v>4183.43451550373</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>26.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9162,7 +9450,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9201,7 +9489,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9240,7 +9528,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9279,7 +9567,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9318,7 +9606,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9357,7 +9645,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9392,19 +9680,19 @@
         <v>503960.6087155038</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L237" t="n">
-        <v>1.032878787878788</v>
+        <v>1</v>
       </c>
       <c r="M237" t="inlineStr"/>
     </row>
@@ -9431,11 +9719,17 @@
         <v>511072.6087155038</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9464,11 +9758,17 @@
         <v>492771.6634155037</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9497,11 +9797,17 @@
         <v>513462.2853155037</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9530,11 +9836,17 @@
         <v>513462.2853155037</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9563,11 +9875,17 @@
         <v>842046.9109498103</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9596,11 +9914,17 @@
         <v>839046.9110498102</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9629,11 +9953,17 @@
         <v>839046.9110498102</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9665,8 +9995,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9695,11 +10031,17 @@
         <v>839046.9110498102</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9731,8 +10073,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9764,8 +10112,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9797,8 +10151,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9830,8 +10190,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9863,8 +10229,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9896,8 +10268,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9929,8 +10307,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9962,8 +10346,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9995,8 +10385,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10028,8 +10424,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10061,8 +10463,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10094,8 +10502,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10127,8 +10541,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10160,8 +10580,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10193,8 +10619,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10226,8 +10658,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10259,8 +10697,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10289,15 +10733,23 @@
         <v>2366233.364196227</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>1.101870229007634</v>
+      </c>
+      <c r="M264" t="n">
+        <v>1.00381679389313</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10322,7 +10774,7 @@
         <v>2194906.442396227</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10355,7 +10807,7 @@
         <v>2416113.558196227</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10388,7 +10840,7 @@
         <v>2416113.558196227</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10421,7 +10873,7 @@
         <v>2185002.321296227</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10454,7 +10906,7 @@
         <v>2185002.321296227</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10487,7 +10939,7 @@
         <v>1997125.690896227</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10520,7 +10972,7 @@
         <v>1881375.380996227</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10553,7 +11005,7 @@
         <v>1724068.454796227</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10586,7 +11038,7 @@
         <v>1501434.815796227</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10982,7 +11434,7 @@
         <v>1471154.671796227</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11015,7 +11467,7 @@
         <v>1615186.356896227</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11048,7 +11500,7 @@
         <v>1604156.958396227</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11147,7 +11599,7 @@
         <v>1535245.235096227</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11180,7 +11632,7 @@
         <v>1535245.235096227</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11213,7 +11665,7 @@
         <v>1508308.275796227</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11246,7 +11698,7 @@
         <v>1508308.275796227</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
